--- a/table/enemy.xlsx
+++ b/table/enemy.xlsx
@@ -1,117 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="9840" windowHeight="5020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>akt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>pic</t>
   </si>
   <si>
     <t>史莱姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哥布林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泥人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨魔</t>
+  </si>
+  <si>
+    <t>利维坦</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>木头傀儡</t>
+  </si>
+  <si>
+    <t>石头傀儡</t>
+  </si>
+  <si>
+    <t>斯卡塔</t>
   </si>
   <si>
     <t>蜘蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>骷髅兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>獠牙兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哈特尼根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰格尔奈特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯卡塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,22 +114,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -196,71 +194,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,8 +391,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -430,50 +428,97 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -490,19 +535,22 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -513,13 +561,16 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -536,13 +587,16 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -559,13 +613,16 @@
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -582,13 +639,16 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -605,13 +665,16 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -628,13 +691,16 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -651,13 +717,16 @@
       <c r="G9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -674,13 +743,16 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -697,13 +769,16 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -720,13 +795,16 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -743,35 +821,47 @@
       <c r="G13">
         <v>2</v>
       </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>